--- a/WBS_whale_ride.xlsx
+++ b/WBS_whale_ride.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\늄늄이\Desktop\project_sample_repo-main\project_sample_repo-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\늄늄이\Desktop\whaleride.github.io-main\whaleride.github.io-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F246C-7AA4-444D-BC93-72016A8B8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775225A2-50BA-45DE-A242-6B31D28F7F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$14:$E$38</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$E$14:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$14:$E$39</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$E$14:$E$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>시작일</t>
   </si>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2. weniv api 사용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1.4 GitHub 레포지토리 설정</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -243,21 +239,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>#FE0039</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#C1C1C1</t>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>font</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#0A1627</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. weniv, naver api 사용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 naver api 복사 및 사용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,14 +524,11 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,32 +545,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:R38"/>
+  <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1098,80 +1102,80 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="25">
         <v>45330</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="25">
         <v>45337</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="25">
         <v>45330</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="10" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1181,32 +1185,32 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1241,12 +1245,12 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14" t="s">
-        <v>50</v>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
@@ -1260,13 +1264,11 @@
         <v>23</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>2</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
@@ -1276,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>2</v>
       </c>
       <c r="I16" s="8"/>
@@ -1292,11 +1294,11 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>23</v>
@@ -1308,7 +1310,7 @@
     </row>
     <row r="19" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>23</v>
@@ -1318,24 +1320,24 @@
       </c>
       <c r="J19" s="8"/>
       <c r="P19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="20" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14" t="s">
-        <v>50</v>
+      <c r="C20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>23</v>
@@ -1346,110 +1348,108 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="7"/>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="Q23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>58</v>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="Q24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" s="5">
         <v>2</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="8"/>
+      <c r="Q25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="R25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="R26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="L27" s="8"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -1457,32 +1457,32 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="N31" s="8"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="3:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -1490,32 +1490,32 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="O34" s="8"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>
@@ -1523,40 +1523,57 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="O37" s="8"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
       </c>
-      <c r="M38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="3:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
@@ -1565,11 +1582,6 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
